--- a/EP_GeneList.xlsx
+++ b/EP_GeneList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toneill/dev/git/clinvar-ep-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9EB4F5-5E33-B84B-A15C-E8298B19A4A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BFB8ED-5D20-FB4B-B6AB-E5DCCB00DB3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t>MECP2</t>
   </si>
   <si>
-    <t>Rett_Angelman-like Disorders</t>
-  </si>
-  <si>
     <t>CDKL5</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
   </si>
   <si>
     <t>RYR1</t>
-  </si>
-  <si>
-    <t>MHS</t>
   </si>
   <si>
     <t>CACNA1S</t>
@@ -805,6 +799,12 @@
   </si>
   <si>
     <t>CACNA1F</t>
+  </si>
+  <si>
+    <t>ClinGen Rett and Angelman-like Disorders Variant Curation Expert Panel, ClinGen</t>
+  </si>
+  <si>
+    <t>ClinGen Malignant Hyperthermia Susceptibility Variant Curation Expert Panel,ClinGen</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A178" sqref="A1:Z221"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2978,7 +2978,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3010,7 +3010,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3042,7 +3042,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3828,7 +3828,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3860,7 +3860,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3892,7 +3892,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3924,7 +3924,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3956,7 +3956,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3988,7 +3988,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -4020,7 +4020,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>14</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>14</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>14</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>14</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>14</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>14</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>14</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4921,10 +4921,10 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4953,10 +4953,10 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5311,10 +5311,10 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5343,10 +5343,10 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>72</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -6059,10 +6059,10 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -6091,10 +6091,10 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -6221,10 +6221,10 @@
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -6349,10 +6349,10 @@
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -6477,10 +6477,10 @@
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -6701,10 +6701,10 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C177" s="5">
         <v>507662</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C178" s="5">
         <v>507662</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C179" s="5">
         <v>507662</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C180" s="5">
         <v>507662</v>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C181" s="5">
         <v>507662</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>4</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>4</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>4</v>
@@ -7444,7 +7444,7 @@
         <v>89</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -7473,10 +7473,10 @@
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -7537,10 +7537,10 @@
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -7633,10 +7633,10 @@
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -7729,10 +7729,10 @@
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -7761,10 +7761,10 @@
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -7793,10 +7793,10 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -7889,10 +7889,10 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -7953,10 +7953,10 @@
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -8083,10 +8083,10 @@
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -8115,10 +8115,10 @@
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -8211,10 +8211,10 @@
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -8275,10 +8275,10 @@
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>

--- a/EP_GeneList.xlsx
+++ b/EP_GeneList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toneill/dev/git/clinvar-ep-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BFB8ED-5D20-FB4B-B6AB-E5DCCB00DB3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56479E8D-4795-BC45-AB66-C9717484119A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="285">
   <si>
     <t>Gene</t>
   </si>
@@ -528,9 +528,6 @@
     <t>SLC19A3</t>
   </si>
   <si>
-    <t>Mito Disease</t>
-  </si>
-  <si>
     <t>PDHA1</t>
   </si>
   <si>
@@ -801,17 +798,95 @@
     <t>CACNA1F</t>
   </si>
   <si>
-    <t>ClinGen Rett and Angelman-like Disorders Variant Curation Expert Panel, ClinGen</t>
+    <t>FGFR3</t>
   </si>
   <si>
-    <t>ClinGen Malignant Hyperthermia Susceptibility Variant Curation Expert Panel,ClinGen</t>
+    <t>Fibroblast Growth Factor Receptor Mutations (SNVs)</t>
+  </si>
+  <si>
+    <t>FGFR1</t>
+  </si>
+  <si>
+    <t>FGFR2</t>
+  </si>
+  <si>
+    <t>FGFR4</t>
+  </si>
+  <si>
+    <t>KCNQ2</t>
+  </si>
+  <si>
+    <t>KCNQ Channel Brain Disorders</t>
+  </si>
+  <si>
+    <t>KCNQ3</t>
+  </si>
+  <si>
+    <t>Malignant Hyperthermia Susceptibility</t>
+  </si>
+  <si>
+    <t>Mitochondrial Disease Nuclear and Mitochondrial</t>
+  </si>
+  <si>
+    <t>BMPR2</t>
+  </si>
+  <si>
+    <t>Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>KCNK3</t>
+  </si>
+  <si>
+    <t>TBX4</t>
+  </si>
+  <si>
+    <t>SMAD9</t>
+  </si>
+  <si>
+    <t>KDR</t>
+  </si>
+  <si>
+    <t>GDF2</t>
+  </si>
+  <si>
+    <t>ATP13A3</t>
+  </si>
+  <si>
+    <t>Rett_Angelman-like Disorders</t>
+  </si>
+  <si>
+    <t>CPS1</t>
+  </si>
+  <si>
+    <t>Urea Cycle Disorders</t>
+  </si>
+  <si>
+    <t>NAGS</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>ASS1</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>SLC25A13</t>
+  </si>
+  <si>
+    <t>SLC25A15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,6 +896,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -858,6 +934,12 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -891,6 +973,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B128" sqref="A1:C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1156,13 +1240,13 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1189,12 +1273,12 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1221,12 +1305,12 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1253,12 +1337,12 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1284,13 +1368,13 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1316,13 +1400,13 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1348,13 +1432,13 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1380,13 +1464,13 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1412,13 +1496,13 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1444,13 +1528,13 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>506161</v>
       </c>
       <c r="D11" s="4"/>
@@ -1478,13 +1562,13 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="9">
         <v>506161</v>
       </c>
       <c r="D12" s="4"/>
@@ -1512,13 +1596,13 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="9">
         <v>506161</v>
       </c>
       <c r="D13" s="4"/>
@@ -1546,13 +1630,13 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>506161</v>
       </c>
       <c r="D14" s="4"/>
@@ -1580,13 +1664,13 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="9">
         <v>506161</v>
       </c>
       <c r="D15" s="4"/>
@@ -1614,13 +1698,13 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <v>506161</v>
       </c>
       <c r="D16" s="4"/>
@@ -1648,13 +1732,13 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="9">
         <v>506161</v>
       </c>
       <c r="D17" s="4"/>
@@ -1682,13 +1766,13 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="9">
         <v>506161</v>
       </c>
       <c r="D18" s="4"/>
@@ -1716,13 +1800,13 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="9">
         <v>506161</v>
       </c>
       <c r="D19" s="4"/>
@@ -1750,13 +1834,13 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="9">
         <v>506817</v>
       </c>
       <c r="D20" s="4"/>
@@ -1784,13 +1868,13 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1816,13 +1900,13 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1848,13 +1932,13 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1880,13 +1964,13 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="9">
         <v>500092</v>
       </c>
       <c r="D24" s="4"/>
@@ -1914,13 +1998,13 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1946,13 +2030,13 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1978,13 +2062,13 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2010,13 +2094,13 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2042,13 +2126,13 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2074,13 +2158,13 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2106,13 +2190,13 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2138,13 +2222,13 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="B32" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2170,13 +2254,13 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="A33" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2202,13 +2286,13 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="4"/>
+      <c r="A34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2234,13 +2318,13 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="4"/>
+      <c r="A35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2266,13 +2350,13 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="A36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2298,13 +2382,13 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="A37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2330,13 +2414,13 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="4"/>
+      <c r="A38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2362,13 +2446,13 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="A39" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2394,13 +2478,13 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="4"/>
+      <c r="A40" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2426,13 +2510,13 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="A41" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2458,13 +2542,13 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="A42" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2491,12 +2575,12 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2522,13 +2606,13 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="A44" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2555,12 +2639,12 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2589,10 +2673,10 @@
       <c r="A46" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="B46" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2618,13 +2702,13 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="9"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2650,13 +2734,13 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="4"/>
+      <c r="B48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2682,13 +2766,13 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="4"/>
+      <c r="B49" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2714,13 +2798,13 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="4"/>
+      <c r="B50" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="9"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2746,13 +2830,13 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="4"/>
+      <c r="B51" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2778,13 +2862,13 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="4"/>
+      <c r="B52" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="9"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2810,13 +2894,13 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="B53" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="9"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2842,13 +2926,13 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2874,13 +2958,13 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2906,13 +2990,13 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="9">
         <v>504863</v>
       </c>
       <c r="D56" s="4"/>
@@ -2940,13 +3024,13 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="9">
         <v>504863</v>
       </c>
       <c r="D57" s="4"/>
@@ -2974,13 +3058,13 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="4"/>
+      <c r="B58" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="9"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3006,13 +3090,13 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59" s="4"/>
+      <c r="B59" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3038,13 +3122,13 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="4"/>
+      <c r="B60" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3070,13 +3154,13 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3102,13 +3186,13 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="A62" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="9"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -3134,13 +3218,13 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="4"/>
+      <c r="A63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3166,13 +3250,13 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="4"/>
+      <c r="A64" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="9"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -3198,13 +3282,13 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="4"/>
+      <c r="A65" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="9"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3230,13 +3314,13 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="4"/>
+      <c r="A66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="9"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -3262,15 +3346,13 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="4">
-        <v>506744</v>
-      </c>
+      <c r="A67" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3296,15 +3378,13 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="4">
-        <v>506744</v>
-      </c>
+      <c r="A68" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="9"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3330,15 +3410,13 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="6">
-        <v>506744</v>
-      </c>
+      <c r="A69" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="9"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3364,15 +3442,13 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="4">
-        <v>506744</v>
-      </c>
+      <c r="A70" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="9"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3398,13 +3474,13 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="9">
         <v>506744</v>
       </c>
       <c r="D71" s="4"/>
@@ -3432,13 +3508,13 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="9">
         <v>506744</v>
       </c>
       <c r="D72" s="4"/>
@@ -3466,13 +3542,13 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="6">
         <v>506744</v>
       </c>
       <c r="D73" s="4"/>
@@ -3500,13 +3576,13 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="9">
         <v>506744</v>
       </c>
       <c r="D74" s="4"/>
@@ -3534,13 +3610,13 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="9">
         <v>506744</v>
       </c>
       <c r="D75" s="4"/>
@@ -3568,13 +3644,15 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="4"/>
+      <c r="A76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="9">
+        <v>506744</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3600,13 +3678,15 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="4"/>
+      <c r="A77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="9">
+        <v>506744</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3632,13 +3712,15 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="4"/>
+      <c r="A78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="9">
+        <v>506744</v>
+      </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -3664,13 +3746,15 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="4"/>
+      <c r="A79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="9">
+        <v>506744</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -3696,13 +3780,13 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3728,13 +3812,13 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3760,13 +3844,13 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3792,13 +3876,13 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -3824,13 +3908,13 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="4"/>
+      <c r="A84" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="9"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3856,13 +3940,13 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C85" s="4"/>
+      <c r="A85" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="9"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3888,13 +3972,13 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="4"/>
+      <c r="A86" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="9"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3920,13 +4004,13 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="4"/>
+      <c r="A87" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -3952,13 +4036,13 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" s="4"/>
+      <c r="A88" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="9"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -3984,13 +4068,13 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="4"/>
+      <c r="A89" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4016,13 +4100,13 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="4"/>
+      <c r="A90" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="9"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4048,13 +4132,13 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C91" s="4"/>
+      <c r="A91" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="9"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4080,13 +4164,13 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="4"/>
+      <c r="A92" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="9"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4112,13 +4196,13 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="4"/>
+      <c r="A93" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="9"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4144,15 +4228,13 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="4">
-        <v>500189</v>
-      </c>
+      <c r="A94" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4178,15 +4260,13 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="4">
-        <v>500189</v>
-      </c>
+      <c r="A95" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="9"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4212,15 +4292,13 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="4">
-        <v>500189</v>
-      </c>
+      <c r="A96" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4246,15 +4324,13 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="4">
-        <v>500189</v>
-      </c>
+      <c r="A97" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="9"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4280,13 +4356,15 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="9">
+        <v>500189</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4312,13 +4390,15 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="9">
+        <v>500189</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4344,13 +4424,15 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="9">
+        <v>500189</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4376,13 +4458,15 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="A101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="9">
+        <v>500189</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4408,13 +4492,13 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="A102" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -4440,13 +4524,13 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A103" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4472,13 +4556,13 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4504,13 +4588,13 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="4"/>
+      <c r="A105" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4536,13 +4620,13 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" s="4"/>
+      <c r="A106" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="9"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4568,13 +4652,13 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C107" s="4"/>
+      <c r="A107" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4600,13 +4684,13 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="4"/>
+      <c r="A108" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="9"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -4632,13 +4716,13 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="4"/>
+      <c r="A109" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4664,13 +4748,13 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="4"/>
+      <c r="A110" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="9"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -4696,13 +4780,13 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="4"/>
+      <c r="A111" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -4728,13 +4812,13 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="4"/>
+      <c r="A112" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="9"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -4760,13 +4844,13 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C113" s="4"/>
+      <c r="A113" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="9"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -4792,13 +4876,13 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A114" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" s="4"/>
+      <c r="A114" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -4824,13 +4908,13 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A115" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="4"/>
+      <c r="A115" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="9"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -4856,13 +4940,13 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="4"/>
+      <c r="A116" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" s="9"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -4888,13 +4972,13 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A117" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="4"/>
+      <c r="A117" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -4920,13 +5004,13 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" s="4"/>
+      <c r="A118" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="9"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4952,13 +5036,13 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" s="4"/>
+      <c r="A119" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4984,13 +5068,13 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="4"/>
+      <c r="A120" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="9"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -5016,13 +5100,13 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A121" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" s="4"/>
+      <c r="A121" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="9"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5048,13 +5132,13 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A122" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="A122" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C122" s="4"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5080,13 +5164,13 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="A123" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C123" s="4"/>
+      <c r="C123" s="9"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5112,15 +5196,13 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A124" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" s="5">
-        <v>507522</v>
-      </c>
+      <c r="A124" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="9"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5146,15 +5228,13 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="5">
-        <v>507522</v>
-      </c>
+      <c r="A125" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="9"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5180,15 +5260,13 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A126" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" s="5">
-        <v>507522</v>
-      </c>
+      <c r="A126" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5214,13 +5292,13 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C127" s="4"/>
+      <c r="A127" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="9"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5246,13 +5324,13 @@
       <c r="Z127" s="4"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A128" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="4"/>
+      <c r="A128" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="9"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5278,13 +5356,13 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A129" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C129" s="4"/>
+      <c r="A129" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="9"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5310,13 +5388,15 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A130" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="4"/>
+      <c r="A130" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="5">
+        <v>507522</v>
+      </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -5342,13 +5422,15 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A131" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="4"/>
+      <c r="A131" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="5">
+        <v>507522</v>
+      </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5374,13 +5456,15 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A132" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" s="4"/>
+      <c r="A132" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="5">
+        <v>507522</v>
+      </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -5406,13 +5490,15 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A133" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="4"/>
+      <c r="A133" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="9">
+        <v>508072</v>
+      </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5438,13 +5524,15 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A134" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C134" s="4"/>
+      <c r="A134" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" s="9">
+        <v>508072</v>
+      </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5470,13 +5558,15 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A135" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="4"/>
+      <c r="A135" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="9">
+        <v>507881</v>
+      </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5502,13 +5592,15 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A136" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C136" s="4"/>
+      <c r="A136" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="9">
+        <v>507881</v>
+      </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -5534,13 +5626,15 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A137" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" s="4"/>
+      <c r="A137" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="9">
+        <v>507881</v>
+      </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -5566,13 +5660,15 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A138" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C138" s="4"/>
+      <c r="A138" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="9">
+        <v>507881</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -5598,13 +5694,13 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A139" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="9"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -5630,13 +5726,13 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A140" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="9"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -5662,13 +5758,13 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A141" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="A141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C141" s="4"/>
+      <c r="C141" s="9"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -5694,13 +5790,13 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A142" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="A142" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="9"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -5726,15 +5822,13 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A143" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A143" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="9"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -5760,15 +5854,13 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A144" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A144" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" s="9"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -5794,15 +5886,13 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A145" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="9"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -5828,15 +5918,13 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A146" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A146" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="9"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -5862,15 +5950,13 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C147" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A147" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="9"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -5896,15 +5982,13 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A148" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C148" s="4">
-        <v>507107</v>
-      </c>
+      <c r="A148" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="9"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -5930,13 +6014,15 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A149" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="9">
+        <v>507107</v>
+      </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -5962,13 +6048,15 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A150" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C150" s="4"/>
+      <c r="A150" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="9">
+        <v>507107</v>
+      </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -5994,13 +6082,15 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A151" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C151" s="4"/>
+      <c r="A151" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="9">
+        <v>507107</v>
+      </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -6026,13 +6116,15 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C152" s="4"/>
+      <c r="A152" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="9">
+        <v>507107</v>
+      </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -6058,13 +6150,15 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A153" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C153" s="4"/>
+      <c r="A153" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="9">
+        <v>507107</v>
+      </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -6090,13 +6184,15 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A154" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C154" s="4"/>
+      <c r="A154" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="9">
+        <v>507107</v>
+      </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6122,13 +6218,13 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C155" s="4"/>
+      <c r="A155" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="9"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -6154,15 +6250,13 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" s="4">
-        <v>506558</v>
-      </c>
+      <c r="A156" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="9"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -6188,13 +6282,13 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A157" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C157" s="4"/>
+      <c r="A157" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="9"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -6220,13 +6314,13 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A158" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C158" s="4"/>
+      <c r="A158" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C158" s="9"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -6252,13 +6346,13 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A159" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C159" s="4"/>
+      <c r="A159" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C159" s="9"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -6284,13 +6378,13 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A160" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C160" s="4"/>
+      <c r="A160" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="9"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -6316,13 +6410,13 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A161" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C161" s="4"/>
+      <c r="A161" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C161" s="9"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -6348,13 +6442,15 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A162" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C162" s="4"/>
+      <c r="A162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="9">
+        <v>506558</v>
+      </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -6380,13 +6476,13 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A163" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="4"/>
+      <c r="A163" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" s="9"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -6412,13 +6508,13 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A164" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B164" s="4" t="s">
+      <c r="A164" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C164" s="4"/>
+      <c r="B164" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="9"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -6444,13 +6540,13 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A165" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="4"/>
+      <c r="A165" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="9"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -6476,13 +6572,13 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A166" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C166" s="4"/>
+      <c r="A166" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="9"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -6508,13 +6604,13 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A167" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" s="4"/>
+      <c r="A167" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="9"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6540,13 +6636,13 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A168" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168" s="4"/>
+      <c r="A168" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" s="9"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6572,13 +6668,13 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A169" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C169" s="4"/>
+      <c r="A169" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="9"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6604,13 +6700,13 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A170" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C170" s="4"/>
+      <c r="A170" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" s="9"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -6636,13 +6732,13 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A171" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C171" s="4"/>
+      <c r="A171" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="9"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -6668,13 +6764,13 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A172" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C172" s="4"/>
+      <c r="A172" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" s="9"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -6700,13 +6796,13 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A173" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C173" s="4"/>
+      <c r="A173" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="9"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -6732,13 +6828,13 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A174" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" s="4"/>
+      <c r="A174" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="9"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -6764,13 +6860,13 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A175" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C175" s="4"/>
+      <c r="A175" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="9"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -6796,13 +6892,13 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A176" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C176" s="4"/>
+      <c r="A176" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="9"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -6828,15 +6924,13 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A177" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" s="5">
-        <v>507662</v>
-      </c>
+      <c r="A177" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="9"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -6862,15 +6956,13 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A178" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C178" s="5">
-        <v>507662</v>
-      </c>
+      <c r="A178" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="9"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -6896,15 +6988,13 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A179" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C179" s="5">
-        <v>507662</v>
-      </c>
+      <c r="A179" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" s="9"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -6930,15 +7020,13 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A180" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" s="5">
-        <v>507662</v>
-      </c>
+      <c r="A180" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" s="9"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -6964,15 +7052,13 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A181" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C181" s="5">
-        <v>507662</v>
-      </c>
+      <c r="A181" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C181" s="9"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -6998,15 +7084,13 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A182" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C182" s="4">
-        <v>506694</v>
-      </c>
+      <c r="A182" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="9"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -7032,14 +7116,14 @@
       <c r="Z182" s="4"/>
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A183" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="4">
-        <v>506439</v>
+      <c r="A183" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183" s="5">
+        <v>507662</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -7066,14 +7150,14 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A184" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="6">
-        <v>506439</v>
+      <c r="A184" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C184" s="5">
+        <v>507662</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -7100,14 +7184,14 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="6">
-        <v>506439</v>
+      <c r="A185" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C185" s="5">
+        <v>507662</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -7134,14 +7218,14 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A186" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="6">
-        <v>506439</v>
+      <c r="A186" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="5">
+        <v>507662</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -7168,14 +7252,14 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A187" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="6">
-        <v>506439</v>
+      <c r="A187" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C187" s="5">
+        <v>507662</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -7202,14 +7286,14 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A188" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="6">
-        <v>506439</v>
+      <c r="A188" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="9">
+        <v>506694</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -7236,15 +7320,13 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A189" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="6">
-        <v>506439</v>
-      </c>
+      <c r="A189" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="9"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -7270,15 +7352,13 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A190" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="6">
-        <v>506439</v>
-      </c>
+      <c r="A190" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" s="9"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -7304,15 +7384,13 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A191" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="6">
-        <v>506439</v>
-      </c>
+      <c r="A191" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C191" s="9"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -7339,14 +7417,12 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="6">
-        <v>506439</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C192" s="9"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -7373,14 +7449,12 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" s="6">
-        <v>506439</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C193" s="9"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -7407,14 +7481,12 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="6">
-        <v>506439</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C194" s="9"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -7440,13 +7512,13 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A195" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C195" s="4"/>
+      <c r="A195" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C195" s="9"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -7472,13 +7544,15 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A196" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C196" s="4"/>
+      <c r="A196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="9">
+        <v>506439</v>
+      </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -7504,13 +7578,15 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A197" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C197" s="4"/>
+      <c r="A197" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="6">
+        <v>506439</v>
+      </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -7536,13 +7612,15 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A198" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C198" s="4"/>
+      <c r="A198" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="6">
+        <v>506439</v>
+      </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -7568,13 +7646,15 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A199" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C199" s="4"/>
+      <c r="A199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="6">
+        <v>506439</v>
+      </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -7600,13 +7680,15 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A200" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C200" s="4"/>
+      <c r="A200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="6">
+        <v>506439</v>
+      </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -7632,13 +7714,15 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A201" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C201" s="4"/>
+      <c r="A201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="6">
+        <v>506439</v>
+      </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -7664,13 +7748,15 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A202" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C202" s="4"/>
+      <c r="A202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="6">
+        <v>506439</v>
+      </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -7696,13 +7782,15 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A203" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C203" s="4"/>
+      <c r="A203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="6">
+        <v>506439</v>
+      </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -7728,13 +7816,15 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A204" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C204" s="4"/>
+      <c r="A204" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="6">
+        <v>506439</v>
+      </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -7760,13 +7850,15 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A205" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C205" s="4"/>
+      <c r="A205" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="6">
+        <v>506439</v>
+      </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -7792,13 +7884,15 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A206" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C206" s="4"/>
+      <c r="A206" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="6">
+        <v>506439</v>
+      </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -7824,13 +7918,15 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A207" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C207" s="4"/>
+      <c r="A207" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="6">
+        <v>506439</v>
+      </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -7856,13 +7952,15 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A208" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C208" s="4"/>
+      <c r="A208" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C208" s="10">
+        <v>508065</v>
+      </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -7888,13 +7986,15 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A209" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C209" s="4"/>
+      <c r="A209" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C209" s="10">
+        <v>508065</v>
+      </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -7920,13 +8020,15 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A210" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C210" s="4"/>
+      <c r="A210" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C210" s="10">
+        <v>508065</v>
+      </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -7952,13 +8054,15 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A211" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C211" s="4"/>
+      <c r="A211" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" s="10">
+        <v>508065</v>
+      </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -7984,14 +8088,14 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A212" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C212" s="4">
-        <v>507142</v>
+      <c r="A212" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" s="10">
+        <v>508065</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -8018,13 +8122,15 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A213" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C213" s="4"/>
+      <c r="A213" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="10">
+        <v>508065</v>
+      </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -8050,13 +8156,13 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A214" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C214" s="4"/>
+      <c r="A214" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C214" s="9"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -8082,13 +8188,13 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A215" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C215" s="4"/>
+      <c r="A215" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C215" s="9"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -8114,13 +8220,13 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A216" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C216" s="4"/>
+      <c r="A216" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C216" s="9"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -8146,13 +8252,13 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A217" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C217" s="4"/>
+      <c r="A217" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C217" s="9"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -8178,13 +8284,13 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A218" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C218" s="4"/>
+      <c r="A218" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C218" s="9"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -8210,13 +8316,13 @@
       <c r="Z218" s="4"/>
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A219" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C219" s="4"/>
+      <c r="A219" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C219" s="9"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -8242,13 +8348,13 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A220" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C220" s="4"/>
+      <c r="A220" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C220" s="9"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -8274,13 +8380,13 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C221" s="4"/>
+      <c r="A221" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C221" s="9"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -8306,9 +8412,13 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="1"/>
+      <c r="A222" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C222" s="9"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -8334,9 +8444,13 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C223" s="9"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -8362,9 +8476,13 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="1"/>
+      <c r="A224" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C224" s="9"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -8390,9 +8508,15 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="1"/>
+      <c r="A225" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C225" s="9">
+        <v>507142</v>
+      </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -8418,9 +8542,13 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C226" s="9"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -8446,9 +8574,13 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="1"/>
+      <c r="A227" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C227" s="9"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -8474,9 +8606,13 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="1"/>
+      <c r="A228" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C228" s="9"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -8502,9 +8638,13 @@
       <c r="Z228" s="2"/>
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="1"/>
+      <c r="A229" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C229" s="9"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -8530,9 +8670,13 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1"/>
+      <c r="A230" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C230" s="9"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -8558,9 +8702,13 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1"/>
+      <c r="A231" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231" s="9"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -8586,9 +8734,13 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="1"/>
+      <c r="A232" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C232" s="9"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -8614,9 +8766,13 @@
       <c r="Z232" s="2"/>
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="1"/>
+      <c r="A233" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C233" s="9"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -8642,9 +8798,13 @@
       <c r="Z233" s="2"/>
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="1"/>
+      <c r="A234" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C234" s="9"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -8670,9 +8830,13 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="1"/>
+      <c r="A235" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C235" s="9"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -8698,9 +8862,13 @@
       <c r="Z235" s="2"/>
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="1"/>
+      <c r="A236" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C236" s="9"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -8726,9 +8894,13 @@
       <c r="Z236" s="2"/>
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="1"/>
+      <c r="A237" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C237" s="9"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -8754,9 +8926,13 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" s="9"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -8782,9 +8958,13 @@
       <c r="Z238" s="2"/>
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C239" s="9"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -8810,9 +8990,13 @@
       <c r="Z239" s="2"/>
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="1"/>
+      <c r="A240" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240" s="9"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -8838,9 +9022,13 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="1"/>
+      <c r="A241" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C241" s="9"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -8866,9 +9054,13 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="1"/>
+      <c r="A242" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C242" s="9"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
